--- a/trunk/StudyCases/CRS.xlsx
+++ b/trunk/StudyCases/CRS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
   <si>
     <t>EA</t>
   </si>
@@ -172,12 +172,6 @@
     </r>
   </si>
   <si>
-    <t>Modificability
-Availability
-Usability
-Performance</t>
-  </si>
-  <si>
     <t>Usability
 Modifiability
 Availability</t>
@@ -223,6 +217,19 @@
       <t xml:space="preserve">
 Availability</t>
     </r>
+  </si>
+  <si>
+    <t>Modifiability
+Availability
+Usability
+Performance</t>
+  </si>
+  <si>
+    <t>Modifiability
+Availability
+Security
+Usability
+Performance</t>
   </si>
 </sst>
 </file>
@@ -466,6 +473,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -484,9 +494,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis1" xfId="2" builtinId="32"/>
@@ -1372,20 +1379,24 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="17000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1425,21 +1436,25 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="14000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -1509,15 +1524,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1548848</xdr:colOff>
+      <xdr:colOff>1584158</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>58616</xdr:rowOff>
+      <xdr:rowOff>58617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>146538</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>248479</xdr:rowOff>
+      <xdr:rowOff>210553</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1526,8 +1541,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6526696" y="1682007"/>
-          <a:ext cx="875407" cy="189863"/>
+          <a:off x="6572250" y="1677867"/>
+          <a:ext cx="838354" cy="151936"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1650,15 +1665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1664804</xdr:colOff>
+      <xdr:colOff>1629276</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>265044</xdr:rowOff>
+      <xdr:rowOff>265045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>140805</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>381001</xdr:rowOff>
+      <xdr:rowOff>396040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1667,8 +1682,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6642652" y="2435087"/>
-          <a:ext cx="753718" cy="115957"/>
+          <a:off x="6617368" y="2430729"/>
+          <a:ext cx="787503" cy="130995"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2126,9 +2141,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>670891</xdr:colOff>
+      <xdr:colOff>726908</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>41413</xdr:rowOff>
+      <xdr:rowOff>45119</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2137,8 +2152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4047090" y="4987165"/>
-          <a:ext cx="1601649" cy="114922"/>
+          <a:off x="4056899" y="4989345"/>
+          <a:ext cx="1658101" cy="119063"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2169,11 +2184,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>892969</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>157369</xdr:rowOff>
+      <xdr:rowOff>145382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>596348</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>178595</xdr:rowOff>
     </xdr:to>
@@ -2184,8 +2199,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3916121" y="5218043"/>
-          <a:ext cx="1658075" cy="21226"/>
+          <a:off x="3925930" y="5208671"/>
+          <a:ext cx="1728912" cy="33213"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2215,12 +2230,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>898922</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>235619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>579782</xdr:colOff>
+      <xdr:colOff>701842</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>188120</xdr:rowOff>
     </xdr:to>
@@ -2231,8 +2246,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3922074" y="5309152"/>
-          <a:ext cx="1635556" cy="179838"/>
+          <a:off x="3931883" y="5298908"/>
+          <a:ext cx="1758051" cy="193133"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2357,11 +2372,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>117232</xdr:rowOff>
+      <xdr:rowOff>125329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>732692</xdr:colOff>
+      <xdr:colOff>756987</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>438150</xdr:rowOff>
     </xdr:to>
@@ -2372,8 +2387,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3724275" y="5403607"/>
-          <a:ext cx="1989992" cy="901943"/>
+          <a:off x="3728286" y="5429250"/>
+          <a:ext cx="2016793" cy="894347"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2566,20 +2581,24 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="17000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2619,21 +2638,25 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="14000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2656,15 +2679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:colOff>1619250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>109905</xdr:rowOff>
+      <xdr:rowOff>109906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>80596</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>130343</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2673,8 +2696,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6657975" y="4920030"/>
-          <a:ext cx="680671" cy="213945"/>
+          <a:off x="6607342" y="4932564"/>
+          <a:ext cx="737320" cy="261068"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3126,15 +3149,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1023938</xdr:colOff>
+      <xdr:colOff>972552</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:rowOff>125329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>604630</xdr:colOff>
+      <xdr:colOff>681790</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:rowOff>15040</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3143,8 +3166,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4047090" y="8937970"/>
-          <a:ext cx="1535388" cy="330269"/>
+          <a:off x="4005513" y="8898355"/>
+          <a:ext cx="1664369" cy="365961"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3361,15 +3384,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>712304</xdr:colOff>
+      <xdr:colOff>687459</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>74545</xdr:rowOff>
+      <xdr:rowOff>74546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>786847</xdr:colOff>
+      <xdr:colOff>786846</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>173936</xdr:rowOff>
+      <xdr:rowOff>157371</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3378,8 +3401,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3714750" y="9827316"/>
-          <a:ext cx="2070652" cy="2029239"/>
+          <a:off x="3710610" y="9806612"/>
+          <a:ext cx="2054086" cy="2054083"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3431,20 +3454,24 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="17000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3484,21 +3511,25 @@
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="14000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3521,7 +3552,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1755913</xdr:colOff>
+      <xdr:colOff>1623391</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109906</xdr:rowOff>
     </xdr:from>
@@ -3529,7 +3560,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>80596</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:rowOff>41413</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3538,8 +3569,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6733761" y="8881189"/>
-          <a:ext cx="602400" cy="403616"/>
+          <a:off x="6601239" y="8881189"/>
+          <a:ext cx="734922" cy="411898"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3568,15 +3599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1573695</xdr:colOff>
+      <xdr:colOff>1590259</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>389283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>240196</xdr:rowOff>
+      <xdr:rowOff>298174</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3585,8 +3616,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6551543" y="9160566"/>
-          <a:ext cx="877957" cy="331304"/>
+          <a:off x="6568107" y="9160566"/>
+          <a:ext cx="877957" cy="389282"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3617,13 +3648,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>1515717</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>397566</xdr:rowOff>
+      <xdr:rowOff>370974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>223631</xdr:colOff>
+      <xdr:colOff>290763</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>66262</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3632,8 +3663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6493565" y="9649240"/>
-          <a:ext cx="985631" cy="149086"/>
+          <a:off x="6503809" y="9620250"/>
+          <a:ext cx="1051020" cy="171538"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3662,15 +3693,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1697935</xdr:colOff>
+      <xdr:colOff>1613147</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>140806</xdr:rowOff>
+      <xdr:rowOff>155846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>140805</xdr:colOff>
+      <xdr:colOff>105713</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
+      <xdr:rowOff>97866</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3679,8 +3710,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6675783" y="9872871"/>
-          <a:ext cx="720587" cy="99390"/>
+          <a:off x="6601239" y="9881372"/>
+          <a:ext cx="768540" cy="132520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3897,15 +3928,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1000124</xdr:colOff>
+      <xdr:colOff>1000123</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>323022</xdr:rowOff>
+      <xdr:rowOff>320843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>753720</xdr:colOff>
+      <xdr:colOff>736933</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>390529</xdr:rowOff>
+      <xdr:rowOff>390531</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3914,8 +3945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="3969853" y="6257097"/>
-          <a:ext cx="1815138" cy="1708292"/>
+          <a:off x="3974428" y="6264946"/>
+          <a:ext cx="1809254" cy="1691941"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4461,15 +4492,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>745439</xdr:colOff>
+      <xdr:colOff>720591</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>364436</xdr:rowOff>
+      <xdr:rowOff>347871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>828263</xdr:colOff>
+      <xdr:colOff>803417</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>49693</xdr:rowOff>
+      <xdr:rowOff>157366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4478,8 +4509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3718896" y="9185414"/>
-          <a:ext cx="2136909" cy="2037520"/>
+          <a:off x="3631930" y="9230967"/>
+          <a:ext cx="2261147" cy="2037522"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4561,9 +4592,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>803413</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>8282</xdr:rowOff>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4573,7 +4604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3718891" y="9640957"/>
-          <a:ext cx="2062370" cy="1590260"/>
+          <a:ext cx="2020957" cy="1689652"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4743,7 +4774,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>720587</xdr:colOff>
+      <xdr:colOff>695739</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
@@ -4751,7 +4782,7 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>786848</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>389282</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4760,8 +4791,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3743739" y="11338891"/>
-          <a:ext cx="2020957" cy="273326"/>
+          <a:off x="3718891" y="11338891"/>
+          <a:ext cx="2045805" cy="265044"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5124,8 +5155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="C30:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5164,10 +5195,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="24" customHeight="1">
@@ -5178,43 +5209,43 @@
         <v>6</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="3:6" ht="18.75" customHeight="1">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="3:6" ht="31.5" customHeight="1">
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="3:6" ht="18.75">
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="3:6" ht="26.25" customHeight="1">
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="3:6" ht="30.75" customHeight="1">
       <c r="C13" s="4" t="s">
@@ -5223,10 +5254,10 @@
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="3:6" ht="22.5" customHeight="1">
       <c r="C14" s="4" t="s">
@@ -5236,7 +5267,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="3:6" ht="30" customHeight="1">
       <c r="C15" s="6" t="s">
@@ -5246,7 +5277,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
+      <c r="F15" s="17"/>
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
@@ -5275,10 +5306,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>14</v>
+        <v>30</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="18.75">
@@ -5289,41 +5320,41 @@
         <v>6</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="3:6" ht="30.75" customHeight="1">
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="3:6" ht="49.5" customHeight="1">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="3:6" ht="37.5" customHeight="1">
-      <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="3:6" ht="30" customHeight="1">
       <c r="C25" s="4" t="s">
@@ -5332,10 +5363,10 @@
       <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="3:6" ht="20.25" customHeight="1">
       <c r="C26" s="4" t="s">
@@ -5345,7 +5376,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="3:6" ht="41.25" customHeight="1">
       <c r="C27" s="6" t="s">
@@ -5355,7 +5386,7 @@
         <v>23</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="16"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
@@ -5384,9 +5415,9 @@
         <v>25</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5398,43 +5429,43 @@
         <v>24</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="3:6">
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="15"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="3:6" ht="27" customHeight="1">
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="15"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="3:6" ht="18.75">
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="3:6" ht="18.75">
-      <c r="C36" s="17"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="3:6" ht="37.5">
       <c r="C37" s="4" t="s">
@@ -5443,10 +5474,10 @@
       <c r="D37" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="15"/>
+      <c r="E37" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="3:6" ht="37.5">
       <c r="C38" s="4" t="s">
@@ -5456,17 +5487,17 @@
         <v>24</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="15"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="3:6" ht="56.25">
       <c r="C39" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
+      <c r="F39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/trunk/StudyCases/CRS.xlsx
+++ b/trunk/StudyCases/CRS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="32">
   <si>
     <t>EA</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Performance</t>
-  </si>
-  <si>
-    <t>QA incorrectos</t>
   </si>
   <si>
     <t>External Interface</t>
@@ -230,6 +227,14 @@
 Security
 Usability
 Performance</t>
+  </si>
+  <si>
+    <t>QA detectados
+ incorrectamente</t>
+  </si>
+  <si>
+    <t>QA detectados 
+incorrectamente</t>
   </si>
 </sst>
 </file>
@@ -5155,8 +5160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C5:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:F39"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5170,7 +5175,7 @@
   <sheetData>
     <row r="5" spans="3:6">
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="29.25" customHeight="1">
@@ -5195,15 +5200,15 @@
         <v>5</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="3:6" ht="24" customHeight="1">
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
@@ -5213,10 +5218,10 @@
     </row>
     <row r="9" spans="3:6" ht="18.75" customHeight="1">
       <c r="C9" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="16"/>
@@ -5237,13 +5242,13 @@
       <c r="E11" s="14"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="3:6" ht="26.25" customHeight="1">
+    <row r="12" spans="3:6" ht="29.25" customHeight="1">
       <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F12" s="16"/>
     </row>
@@ -5255,16 +5260,16 @@
         <v>8</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="16"/>
     </row>
     <row r="14" spans="3:6" ht="22.5" customHeight="1">
       <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="16"/>
@@ -5281,7 +5286,7 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="18.75">
@@ -5306,15 +5311,15 @@
         <v>5</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="18.75">
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>6</v>
@@ -5324,10 +5329,10 @@
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="16"/>
@@ -5343,7 +5348,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="16"/>
@@ -5352,19 +5357,19 @@
       <c r="C24" s="18"/>
       <c r="D24" s="21"/>
       <c r="E24" s="8" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="3:6" ht="30" customHeight="1">
       <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="16"/>
     </row>
@@ -5383,14 +5388,14 @@
         <v>9</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="17"/>
     </row>
     <row r="29" spans="3:6">
       <c r="C29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="3:6" ht="18.75">
@@ -5412,31 +5417,31 @@
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="3:6" ht="37.5">
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="16"/>
@@ -5457,13 +5462,13 @@
       <c r="E35" s="14"/>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="3:6" ht="18.75">
+    <row r="36" spans="3:6" ht="30">
       <c r="C36" s="18"/>
       <c r="D36" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F36" s="16"/>
     </row>
@@ -5472,19 +5477,19 @@
         <v>8</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="3:6" ht="37.5">
       <c r="C38" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="16"/>
@@ -5494,13 +5499,19 @@
         <v>9</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="F31:F39"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E37:E39"/>
     <mergeCell ref="E7:E11"/>
     <mergeCell ref="F7:F15"/>
     <mergeCell ref="E19:E23"/>
@@ -5514,12 +5525,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E13:E15"/>
-    <mergeCell ref="E31:E35"/>
-    <mergeCell ref="F31:F39"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E37:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
